--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/38_Iğdır_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/38_Iğdır_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36963E04-4358-4382-9AE4-7F388B2A1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0856DD02-6F9E-420B-BE1F-A7539393CF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{9DC5C6C0-9929-4FC0-AE51-440C2466E367}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="683" xr2:uid="{F1819591-AFCD-4F9F-9B3B-DAF724113B79}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -944,14 +944,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2BBDBB9C-D90F-4F0F-99DB-03EB4D4F2E61}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CE0EFC41-CFAF-4F05-A307-6D9D980EEB27}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{09C9D839-1A3C-4A2C-B311-882B7B15AFD8}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{ECAD2EEC-BD30-4A1F-82E6-FC302AAD11BD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{9539D777-4600-41A4-B247-9C73B222CC33}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{29301796-DB3E-46AB-A4A5-932C45152DD2}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{FDFC940F-03CB-4A8B-A783-72CDA866F5B7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{178139EB-AA88-40A9-BEC9-F32046883604}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0D140548-3880-4422-A5AA-F46974184B2E}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FFE7C703-03BD-4D3A-ABE4-9345ACFF2A9E}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{6D6F4220-42DA-45EB-B2F5-07EBAC030D9C}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{029C9FD8-E7DB-4257-B60A-FB3398CEBE8A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{48181BC5-F2D9-4EBC-8F33-72BBE6E90D08}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{96379896-D38A-4B67-B541-F06F525881F5}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{4FA04250-ACBF-4ED5-A1AE-9E6B0701732B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{481F8D18-982E-41AB-89D0-3B5A172876E0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1321,7 +1321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3855B797-B38A-4D21-97BE-7D2476890A40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF3018A-4157-4192-B97D-359E6F037671}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2598,18 +2598,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{B87026FF-3A79-4082-A209-C90ED6D5C876}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{44A7FC8B-269A-4759-9720-52EF28E07852}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{297FC083-E9B7-498D-8D3A-A62B95275738}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C6A56287-A646-4A36-8266-FCD44BDD9497}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C16B3C08-8CDB-4393-9A47-7C1F3905F7CC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11D62191-28B1-40CB-BF08-E9B1D4CF1593}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8CE7824-7B8A-4889-9676-5520A9706CDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95514719-812B-4C38-9191-427AB437F5E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{09E59437-9399-43A3-BACD-443483D76C78}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A03C5CA0-2BD0-4B85-99FB-0659187C583F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6C6F9AF-148A-4D00-8DF3-67002F21BDE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{739C3F5A-274E-43FA-AC88-CA9424B4581B}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{566286A8-03B7-4026-93CF-A548873068DB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9E37D176-32E3-454B-BAAE-8D700D118D8A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C6C64E50-2ADA-48D0-A2C4-AEE1883FDA69}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D564F716-F5C1-4355-A1CF-662CF7340287}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B8D6879C-0685-402F-9C46-E6D536E1F323}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{35E9A9FC-92F2-4829-953B-1378A0B8DE5F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{848B0136-36C2-438F-907A-D0C2AFA99AB5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA512541-67AF-4C4B-B967-19F48624E033}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{683C81B8-2407-4219-8FA5-E74938CE5E57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{731C0513-1FA3-498C-B0AA-398F414A6364}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CC785DE7-31B0-4CBC-A2B5-4E30CB55AF5E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEB2ABFD-48CB-49ED-A19B-508AE9A868FE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D29F321-880F-473E-B094-84AB90848DB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7719C7F-E02D-4832-8B29-FE6D4EA10827}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3887,18 +3887,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{8768BB51-46DD-4337-9075-CA103F0B30A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F3FC455A-5C08-4EC6-B88C-7837D5BB9FB6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E3E6F87-E2E8-4A4F-AE5E-A373F1845A83}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5D96A865-8EEA-43C9-A2A3-A7F11384C278}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8D7D9B7-E32F-40EE-BFE9-A230441B391B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A9CEEDE0-476F-4B9E-8129-9CCFF041C35B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04D680A3-80F2-4A89-AE35-43101E614C30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0CB5191-CF2B-4117-A560-7C5352A25BD4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8EB1A4BD-B060-462D-88F2-91796DEB18CB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8522A5D8-D754-4C8C-A814-3F7A84A595FA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAE03056-9506-4654-B4EF-689D2D0B5226}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4606278-AB1D-42F3-8FE0-590867822935}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{3A08E4F4-03E3-4658-8746-8A3D99C43D0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F930260-CBC9-4AE0-B8F1-CD9F2C5BC308}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{533407AA-BC7C-4677-AD68-7EA2377C34C3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B03737E7-AE06-494A-A131-23ECDDAB43F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28884832-D843-408D-BD0F-2C0DA1D1C96F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EA18210C-AF3D-4621-8931-F42D10C5D8A4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{65D240C1-E7CF-4C46-8D0D-F76774D93A40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B39EE64D-5052-4090-90EF-ED675650F4F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2735C6C-FB09-4BEF-B6EF-B6A12934EA49}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{735824D0-5248-42D3-A073-FE100C669C0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{098212C9-2AA8-479A-A2B2-CDD2D19DA797}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2122EB6-2636-46C9-8F3D-4BBBE26A68FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3911,7 +3911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82614D05-323C-4A45-9E87-8E873F038752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBECF34-978A-4CC8-82B8-4786943DE319}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5176,18 +5176,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{14679E93-4585-4013-957D-C2B4AB9A7AD0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0BCA55A-9864-4729-B673-0DCB3ED3D69D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C64169F2-D548-40C9-980A-D337302B08D6}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1B12163F-826E-4965-8C75-B309087C382E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2A1BE8F-CDBA-4C5F-817D-1D032329C51B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA8F35E7-E3C6-4342-9297-AC4191A821A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D5D813F9-07B3-4538-927E-F79904B3A6F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{89AAB812-AA11-4473-B898-460A7AB9D3F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0FDA5D5-8FA9-44C3-BB4B-C650E464C6E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F218836-0368-43B0-BA7C-32B6450385B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CCF52896-01DC-488B-A028-300BA5E79A0C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{946A90C1-7EC3-4771-92ED-70D032BF9DF5}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{0F2FD9BE-BFF0-4063-B9A9-AC8C93BCC7CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F9D715C0-FDF2-4B77-9177-D55B4D1C368E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{50D54FE7-9F6B-4739-95F7-81EAB2B21A47}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FB4D3200-F2D2-4FC8-B508-A08F978BACEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F4D1616-785C-4FEE-80E9-1D67E2351C6D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EA67474-1E5D-490D-B597-311F6FF826AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAC07475-E7A8-4740-8B1F-2552628BE1EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2A45BF4-AE86-40AE-987E-4F2380381C73}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F2979D23-6D9C-4E93-AD30-C82B0907AF55}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C58D4826-C76E-47B0-ACC2-6898AC721378}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6003EA97-22AE-423D-A1F1-E62DB5DCE9FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0FBD157E-5727-439D-A7C2-637B9FBC8CD5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5200,7 +5200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7B5447-DE02-477A-8789-C75C51F69672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A265395-7FAE-4296-BB8B-F09CEA1C40EF}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6457,18 +6457,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{81D7573E-49F5-4170-B230-8722E68FDAD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2221F299-6693-421D-AD87-0A0FC0DA97D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA44C250-7FD1-4F8A-AE55-99B0E6A77585}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71972DB4-9E5E-473D-816E-8BAC79C4D5DB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B34E986-EDE9-4775-89DD-42540EE54A19}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D015A12-BA26-4D60-AB05-719D1E3F1FA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2E88CCD4-0F33-41D7-84FA-07FEAD95C696}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78A91F34-1EB2-42B6-B8AB-E432AFF1E2F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{51F7F8D0-5C39-4CD1-AE52-18D14F979E67}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{085AFFED-63FF-49E1-8925-BF7974E2DE55}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{30411AE1-9D4F-4D11-A05F-61702019408A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2336AF0-1C24-4FA5-8EFA-365DA404D985}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{66B96DB0-AFD7-4B80-B93B-D3FCC29632D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E392D067-32FD-4912-8659-3D12ED7CC002}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7AB601B7-816E-4477-8F51-28C1A387B9A5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6B97CAB4-2EFA-4555-8CF3-5A4E665F249F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{952F1B86-2BE9-4A2D-A9B3-9BCD607DE591}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D3857928-B94C-4C38-B0FB-F01BBDB12D20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FF6B2E3B-72DD-43AD-A3AF-32AA84C250A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7AD85954-6242-4D2B-8FFB-7B3D4BEB4799}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B17B44D-87DD-4A1B-AB34-9BDC2A54CF0B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C148FA27-E28C-47D9-92C8-32134819362E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7F952B5-E8C5-4A5B-B923-013154120C49}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F649E7E9-B6B7-434E-BB1F-E93D5AB627FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6481,7 +6481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEFF4F2-3879-4859-9FB3-BD685847626D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2A85CE-2D7A-473C-8AEF-804C0BCCFB21}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7758,18 +7758,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{AE273D9B-2954-4D5C-B9DE-4CF2B5B9B892}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{251CE1FD-8342-49CD-AC17-5ABFD29543A0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{27E615EF-6E2B-4536-A167-D09FBC28D962}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4C3E39BD-11D1-4AB8-A10A-830553053D2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12FB23FC-9924-4803-B602-A007A137054C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7C5FE776-5CC7-4D4F-B357-8EC9693A47D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{559A00D1-E38C-493F-9999-F9DEBECBF8A7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66AE25CF-34BA-44E1-9E6D-0FA81695AFDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60477178-5B40-4D8D-908F-CB32E0185582}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE38DD5C-95E0-4794-80B4-D6C6F6AE8A01}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E54D5534-7ACC-447B-9AC4-AB953034EF3E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{659AB980-DCAC-4DC1-90A5-2A2252F45571}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{B7EB25AD-EF98-41AB-A148-ADF8B720D0E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37E85B28-53CF-46DD-A8CD-BCAA8D888F1F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC91101A-11C4-4FAA-BBEB-6095FFF4364B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{856FEAB4-9E04-402E-8E4B-2E0F51CC705C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B6922867-5EEC-4C8E-8A45-C7F432687CF2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CA740CA-31BC-4B66-B50E-F3B0421C6892}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8036CD02-7469-4B31-B7B7-1AD030DB4692}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CE3DAA36-A836-428F-AC4C-E39CF91E782E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8F2EB5AB-5CBA-4618-9559-C03BD8B08D43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6C8DAB1-5223-42DA-B391-D42E6B2D17CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BADB8BD9-D6A6-4941-B7ED-593856F3CDDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E86ACF03-ECE5-4BEC-B3C0-5679AF76D110}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7782,7 +7782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD7A010-0E23-41EB-B6C1-BF6AB9DBBE29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65EE1B97-CE73-4545-9BF1-DCED112913D9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9055,18 +9055,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{C70A3A97-DAF5-46E5-A31C-D0B3FF33580D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{26C2FC18-819E-45F0-8505-B8154C1DF451}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D14D8D5B-45D8-4F16-A344-B301F3564586}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CC5AEBBD-DA23-442C-9A1F-6B892F1EC7FF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BDCAB05-C06F-4F6C-9955-1196A662AEBB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{40C23B53-E87F-473C-BE86-EA92108C7D1D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{407E9B0B-0E56-406F-91E3-03820A0F7ADB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A6A995AC-5F0E-46DD-9B5A-765F048EAD22}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4CA194A4-1D93-46C2-ADF6-99A1B07657E2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C2FCFC6A-C26A-4CAA-8A7D-884D400CB526}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13EA1D3B-0840-4A2E-BD40-EE9E2D83C1A8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F597B74-4A3F-48FF-B064-1362DEC60F65}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{35B19EEE-4A18-45E4-B1A8-B741301A6FE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DCFA9354-369E-45C5-AEDE-EFCE0B86A3EA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4A53E39C-F05B-4A6C-B0B1-6FCB1099E118}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{72833A16-8A8E-4440-8FE4-F8D658EF6039}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECAE15F7-6D36-43A6-BBEA-A76C64E68E08}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16E569A2-7C57-438D-9A95-AC5853EF09D9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20C8EC81-A9F5-4F59-9E3A-0AE7BF4F8A9D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7186D5EA-1023-436A-B728-499E701488C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B2DC02E-5750-4793-8C5F-9CB75F3BEB34}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9073A9D7-A7F0-45BE-8910-BED4BC0941B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{22E6F41D-BCE7-4803-B2CB-0F765F714F7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73BD6735-F21A-44E2-9863-F58DDE912690}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9079,7 +9079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69FE867-0E6A-4784-BF9F-6D02DF048269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B11D54F-0FDE-4CBC-84DD-A458C3B9C9C7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10352,18 +10352,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{8EF7786B-5527-4938-938C-2FCB3B0185A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6E05766-2A2D-405F-AD49-E8F0559FF864}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C897F647-51FD-486F-8667-A62A5622CBCD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{13ACD4B0-9A3D-46CD-A071-D2396043B994}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{204C3765-C9A2-4F02-8DC8-734E63F4BD7D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8EF2BB94-069F-4906-958B-9479F1A9AB65}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AE2C520-422D-4138-84C4-7FD7B02497CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B840CFC-4110-4214-9FB0-250316493782}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{977E9D95-40FB-4689-8E8B-DF82756F845E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6B24434E-3BD5-4112-B0D8-8A57B08FBEC7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C39C323E-7F12-43E6-8B00-40A49DF54771}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A11B934E-B241-4102-8ABA-6789C49D3C07}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{2E912B84-FC70-4D09-8A29-38F54AC4C356}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EFA00EF-347B-41C2-89DF-FE75DF950DD4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B0A13B49-8374-48AA-8530-BCC6F201EAF6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{233FB633-99F2-4CBA-B1BA-DEAFDBC46602}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7F47D416-49F8-4EFA-8E9B-E065BB6451C1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FFCB973-49F1-4A30-AB2D-1C7115AE7741}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B350250F-B01D-4549-B416-05794408C0CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{92E1774A-EE11-4FDF-AD99-5636D5F92E09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{414341C0-F047-4BFC-A7E4-5D95B7001DF7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5569AC08-4580-4CB6-BCD0-90B077FE7B52}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37BBA922-1178-4386-A2C0-ACB956F36595}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E02ACE55-8C92-43B5-BD87-8CA89D588B0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10376,7 +10376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEBACB8-2D09-4BC0-8B58-6303572F10AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8425050-A774-436A-96C2-CF09CE95B8F3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11651,18 +11651,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{1D3A1F4B-FD5B-4F05-8BFB-ABD5868E8381}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C83B2945-5A4D-4F25-A4DF-E965D33D70B7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BD0B922F-5785-45EA-8AB2-CB5AF3F837AD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9EA28793-D3D9-4BAA-B54E-208D13B46F2A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C0261A94-5DC1-4D7D-A5B6-C4DA1680C05F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4EDC0CE8-3B77-4AA0-968D-A032D316CD33}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C29F434-9696-48A7-8659-EC762C20F246}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88A88BA3-BE3B-43F2-838B-5933BB0E1345}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{903AB5B6-DEFE-475A-82FE-1F58FA19DE88}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D839672-BE73-4C48-9717-F8292AB77CF1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1971F009-5107-423E-8C8B-61CAC047BEB5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7E563E25-C647-4963-9F65-6FAF6F731300}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{88713284-3498-4D25-A0CA-C8157351C723}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8338BC3-644F-46D8-B09C-BE47A967AA2C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6BD89B22-D03B-46B2-A05B-6E159E0EE246}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DE899A6F-2CA3-4108-A563-825B045B1529}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CD738426-D06F-48A9-B052-859277DC3AE9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D46BF7A-2D80-48B2-9B1A-5D0E207BC864}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{10A5E1E2-AB42-4A69-9158-E7865236C7D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA1BBA5D-93D6-4B18-A6FC-717163B107F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC907243-7543-4782-836B-0B9C3579C6C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{66A9A7D3-D8F6-4A56-B794-558DCA0587EA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{713AAAC2-501B-4FD6-A4A6-C1552BE143B5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3FE452F0-FA85-4F4D-A17A-A8990ACE299A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11675,7 +11675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C58943E8-855B-4560-813A-773B64A564F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134243D3-F2EE-42F5-8843-99613A8D437D}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12940,18 +12940,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{C647CC91-518A-4688-B9F9-221611F0FDA3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC3C9249-91AE-4BF5-9CF7-D763151EF7D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C24DCEA3-6E72-4771-A1E3-D3D0AD689C58}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E617C92-9C73-4F31-85A0-E9EC60F8D8CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2FED2789-5EE6-4DB8-A9C1-3222AC3658FB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F28A5FB2-1193-4248-B1FF-B6E4FE104C02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{88CA67DD-1A3A-4DAA-839B-387B778D3A29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7F0AD53-ED9F-4F81-AF39-79CDE1B70CB5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3FE00735-A172-4586-9CA0-DB39D1D75A1D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ACEB06E1-AF5A-4285-BA25-D4113D1DF5EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2F96FCD5-2607-4AA1-8BA0-4CB5ACEC2ACF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8B38584-7366-4F5C-9CB1-DAA12B89E12C}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{E6E7489D-75C2-4496-A271-C0D1A0FA742D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C87678EA-903B-4E20-994F-BFF07850E028}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{593B1816-C44E-4344-8147-2E77D8BBA5A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2F012877-68CB-438D-A299-DBCC6C6F4234}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BAC14DDF-C9D4-46D1-A179-E328A7513403}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CEC156E2-5271-49D9-B2D4-30C401C2746D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E8603C72-2332-42B1-BEF9-432E6E81A940}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0962E9FB-8567-42B8-A04B-88DB28388668}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D846EACE-1B88-43AF-8171-BE798ECB9F18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{52583915-2E00-43BF-92DB-756BB35220CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A832AC6F-0F13-4815-8147-42295E44FA3A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6DD87D00-953F-4D45-90A6-0EEC426734ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12964,7 +12964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65784E08-E2E5-4888-A676-336538BE84A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4379DD3-DA71-4923-9662-C8C0CCA182D8}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14231,18 +14231,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{DF0B0D1E-163D-4C90-BD67-B0E338C252B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0E3EE62A-C2CC-4132-B805-3FB272B3E7FE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{955A9264-5F11-49A6-8A51-4E4A5798EE36}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A22C0168-87C0-4476-B0B4-0C6CF96ECDDE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B2EA0F63-587E-44DB-8443-0FC87F9D34A6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7D7FFE8E-2793-4305-B312-C11DE64E4127}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F92FCB59-7AFC-48C0-920E-F2F083F7BF3F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80F04139-32CC-48C5-B738-EDB6FE342DB8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E3D20864-F505-4F6F-8CD6-02F5C0C79164}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D114EBF-70D7-4DD7-86EA-F0734414E4CF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9303609D-BB5D-45D2-B0B0-818DE01447B6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F74A064-F3C7-4029-BCCC-9B507FF53107}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{D377C489-BC73-4FD3-9373-68259D11F406}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3295EAD7-4F5F-4B83-910E-4F03A4EF992A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{24D5F1ED-FFC5-4155-9A07-9CECB171975A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F46B3541-2C1F-4791-8EF5-032FD9C1D8E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8CE1F37-6872-445A-B0EE-C3462FCCCE4C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE22D1C8-A263-486E-BB1E-8328C7CCC6A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F92503E4-2D82-4789-983D-0A45EEBDB8B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1697B1D-0635-4398-952B-E166DFA1E62D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8970516C-F08D-4C45-8AFA-A693DE4E2032}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E5DD068-624E-403D-9178-49529E53662C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9ECCBA5-C867-4896-9C18-FE81F2D08391}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2D6E400-F87C-4E4D-BE89-7B031BDB4E41}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14255,7 +14255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5777D181-FF2C-4E4D-AF3A-61B8EAB54EF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88124759-4DC2-4832-A63C-9E0D70B0E569}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15520,18 +15520,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{98F7B615-AFFC-45DD-B043-2D8A33C240CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A268A93B-6C92-4AD6-A132-40BC40F73899}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8323D930-73CD-40E3-B38B-FD8046F2B26B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9DABF28-D1CE-49A2-88C3-43E5A7712733}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E469E204-5621-41E1-A619-237E0E73E83A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8804F356-38F2-4C12-A046-1D4560109C63}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{658D7F37-C00F-4674-8A00-9B4775B72023}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C33A120-A67F-4113-956E-A15A40CAED5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A6EFB14A-3DF7-4F08-8FDE-2FB13527B3E6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86508736-BB90-4314-A1E9-67506B28C8C0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A796D95-7575-4E15-BBD8-F14B6B6F0CDE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4F78B31F-1D88-4C1A-B79A-EC7FCFBC6F72}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{E90E01E1-D36D-4C82-B903-417F4E25D7C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{422122AF-F481-4365-8991-62E9E40FEAE5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9743E592-3264-417B-923F-C3AB68F49A76}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57D66F2D-DA43-43F8-BBB5-88C4B3E99A03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9CA0DA33-2BF8-46BB-8E73-32E19427CCFD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4CCB98D-3E03-4121-8048-811257D2BE17}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D781EFA9-A8B3-400B-89CE-C4B476A3995D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43CDCCF7-2CE6-4361-B246-F02D35432B6E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC9B4B95-530E-41FE-8CCF-5A4DB56A07F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3D693E8-50EC-4896-8E51-E45D53FFEE45}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A712A598-1E7A-4607-8671-02EA44BDA24C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB80FB7F-8FAC-4436-84BE-7E1943F2711A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15544,7 +15544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5779EEB6-5598-4326-8FE3-AC9948B60796}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE37CFA-4E4D-4303-A400-A52CD6FC4DD6}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16809,18 +16809,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{72DE189E-60AD-4556-BEB8-AF2265EF4747}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{61B7C66D-7836-448F-9AB7-6FA18C1DCAFD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78914BC9-7A7C-431F-8AB9-7569BD4C16CD}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E27378F7-F366-44AB-BE67-95C04B38E70F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8CE888D-55BE-4CE7-AA7B-12130125A3D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F38253EE-6CF7-407A-8EC4-6813001B75A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7D50E4E-91BC-4D9E-A781-755A53309213}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86B68222-2B33-4479-A5F6-628BC392B896}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2EC2D0C4-710B-436B-BB75-724E6825464F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{79D3D824-7C26-4F48-B065-A317C4841E6F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CFF83324-6405-4558-9EEA-A271CA470497}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37A00EF5-90BB-4D48-914B-BCCD56525435}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{C3EA8668-EC72-4CC2-AF65-FE169DD8575D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07884EAF-1341-4727-98E6-3E16C9CFEFDA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFC36C94-81D6-4A1D-9EEA-0BCE7C349BCE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1B2C56DB-EB35-41A5-B8B7-3F0EE4FF894A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4EFD357B-8F39-4CFB-B925-4A247EE561D8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9E8B692-AA1B-4492-816C-326B7F5CAF33}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EA0088A-6840-472D-8F76-0115C6B8D7F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0A7E51B8-1280-4C2C-92BC-56F27EBE360F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{431558AB-5031-403F-A4DC-9D7FCE71615A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F58D9C0-AF07-4DF6-B6FE-69ED823F769A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26E586AE-54C0-4C11-A29A-C3571D1B3037}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE7E3A25-7131-4E50-AE76-130C4059F7DE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
